--- a/test.xlsx
+++ b/test.xlsx
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,21 +505,15 @@
     <col width="17" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
-    <col width="24" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="17" customWidth="1" min="15" max="15"/>
-    <col width="17" customWidth="1" min="16" max="16"/>
-    <col width="21" customWidth="1" min="17" max="17"/>
-    <col width="25" customWidth="1" min="18" max="18"/>
-    <col width="27" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="24" customWidth="1" min="21" max="21"/>
-    <col width="26" customWidth="1" min="22" max="22"/>
-    <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="22" customWidth="1" min="24" max="24"/>
-    <col width="24" customWidth="1" min="25" max="25"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="21" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="18" customWidth="1" min="18" max="18"/>
+    <col width="24" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -575,75 +569,45 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>grid_sampling_hpfr</t>
+          <t>biased_hpfr</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>grid_sampling_pss_sum</t>
+          <t>biased_pss_sum</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>grid_sampling_psr_sum</t>
+          <t>biased_psr_sum</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>biased_hpfr</t>
+          <t>baseline_prep_time</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>biased_pss_sum</t>
+          <t>biasedsampling_prep_time</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>biased_psr_sum</t>
+          <t>baseline_sel_time</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>baseline_prep_time</t>
+          <t>biasedsampling_sel_time</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>gridsampling_prep_time</t>
+          <t>baseline_x_time</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>biasedsampling_prep_time</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>baseline_sel_time</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>gridsampling_sel_time</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>biasedsampling_sel_time</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>baseline_x_time</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>gridsampling_x_time</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>biasedsampling_x_time</t>
         </is>
@@ -673,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>3245.742</v>
@@ -685,48 +649,30 @@
         <v>2419.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>3185.909</v>
+        <v>3171.056</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5591.28</v>
+        <v>5604.847</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2405.371</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>2860.429</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>5477.322</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2616.893</v>
-      </c>
-      <c r="Q2" s="5" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="R2" s="5" t="n">
-        <v>0.00128</v>
-      </c>
-      <c r="S2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="U2" s="6" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="V2" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W2" s="7" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="X2" s="7" t="n">
-        <v>0.00132</v>
-      </c>
-      <c r="Y2" s="7" t="n">
+        <v>2433.792</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>0.00847</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R2" s="7" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="S2" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -754,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>3245.742</v>
@@ -766,48 +712,30 @@
         <v>2419.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3200.26</v>
+        <v>2957.493</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5579.355</v>
+        <v>5184.29</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2379.094</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>3150.489</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>5584.734</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2434.245</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="R3" s="5" t="n">
-        <v>0.00133</v>
-      </c>
-      <c r="S3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="U3" s="6" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="V3" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W3" s="7" t="n">
-        <v>1.721</v>
-      </c>
-      <c r="X3" s="7" t="n">
-        <v>0.00137</v>
-      </c>
-      <c r="Y3" s="7" t="n">
+        <v>2226.797</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>0.009560000000000001</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R3" s="7" t="n">
+        <v>1.565</v>
+      </c>
+      <c r="S3" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -835,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>3245.742</v>
@@ -847,48 +775,30 @@
         <v>2419.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3204.808</v>
+        <v>3188.647</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5689.451</v>
+        <v>5556.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2484.643</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>3168.819</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>5803.825</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2635.006</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>1.705</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>0.00132</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6" t="n">
-        <v>0.00954</v>
-      </c>
-      <c r="U4" s="6" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W4" s="7" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="X4" s="7" t="n">
-        <v>0.00136</v>
-      </c>
-      <c r="Y4" s="7" t="n">
+        <v>2367.413</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.009730000000000001</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R4" s="7" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="S4" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -916,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>3545.709</v>
@@ -928,48 +838,30 @@
         <v>2711.034</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3539.097</v>
+        <v>3432.873</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6192.266</v>
+        <v>5910.796</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2653.168</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>3469.277</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>5996.842</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2527.565</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>1.616</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>0.00132</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="U5" s="6" t="n">
-        <v>3e-05</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W5" s="7" t="n">
-        <v>1.626</v>
-      </c>
-      <c r="X5" s="7" t="n">
-        <v>0.00136</v>
-      </c>
-      <c r="Y5" s="7" t="n">
+        <v>2477.922</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.00993</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S5" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -997,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>3545.709</v>
@@ -1009,48 +901,30 @@
         <v>2711.034</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>3517.329</v>
+        <v>3343.113</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6138.881</v>
+        <v>6168.985</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2621.552</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3468.913</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6263.883</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2794.97</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>1.616</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>0.00138</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6" t="n">
-        <v>0.009679999999999999</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>5e-05</v>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W6" s="7" t="n">
-        <v>1.626</v>
-      </c>
-      <c r="X6" s="7" t="n">
-        <v>0.00144</v>
-      </c>
-      <c r="Y6" s="7" t="n">
+        <v>2825.872</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.009560000000000001</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>1.679</v>
+      </c>
+      <c r="S6" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -1078,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>3545.709</v>
@@ -1090,48 +964,30 @@
         <v>2711.034</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3521.525</v>
+        <v>3366.865</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6011.818</v>
+        <v>6025.501</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2490.292</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>3377.577</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>5945.476</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2567.899</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>1.616</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>0.00135</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6" t="n">
-        <v>0.009560000000000001</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W7" s="7" t="n">
-        <v>1.626</v>
-      </c>
-      <c r="X7" s="7" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="Y7" s="7" t="n">
+        <v>2658.636</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.009769999999999999</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R7" s="7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S7" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -1159,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>3686.511</v>
@@ -1171,48 +1027,30 @@
         <v>2915.526</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>3578.222</v>
+        <v>3524.608</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>6775.713</v>
+        <v>6166.949</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>3197.491</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>3645.327</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>6389.789</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2744.461</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>1.613</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>0.00132</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6" t="n">
-        <v>0.00957</v>
-      </c>
-      <c r="U8" s="6" t="n">
-        <v>3e-05</v>
-      </c>
-      <c r="V8" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W8" s="7" t="n">
-        <v>1.623</v>
-      </c>
-      <c r="X8" s="7" t="n">
-        <v>0.00135</v>
-      </c>
-      <c r="Y8" s="7" t="n">
+        <v>2642.341</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>1.658</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.009639999999999999</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R8" s="7" t="n">
+        <v>1.668</v>
+      </c>
+      <c r="S8" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -1240,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>3686.511</v>
@@ -1252,48 +1090,30 @@
         <v>2915.526</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>3681.382</v>
+        <v>3558.984</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6400.685</v>
+        <v>6177.664</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>2719.304</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>3538.955</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>6254.922</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2715.966</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>1.613</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>0.00131</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6" t="n">
-        <v>0.00987</v>
-      </c>
-      <c r="U9" s="6" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="V9" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W9" s="7" t="n">
-        <v>1.623</v>
-      </c>
-      <c r="X9" s="7" t="n">
-        <v>0.00134</v>
-      </c>
-      <c r="Y9" s="7" t="n">
+        <v>2618.68</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.658</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.009950000000000001</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>1.668</v>
+      </c>
+      <c r="S9" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -1321,7 +1141,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>3686.511</v>
@@ -1333,48 +1153,30 @@
         <v>2915.526</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>3661.392</v>
+        <v>3422.721</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>6463.048</v>
+        <v>6495.904</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>2801.655</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>3589.422</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>6721.175</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>3131.753</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>1.613</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>0.00138</v>
-      </c>
-      <c r="S10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="U10" s="6" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="V10" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W10" s="7" t="n">
-        <v>1.624</v>
-      </c>
-      <c r="X10" s="7" t="n">
-        <v>0.00142</v>
-      </c>
-      <c r="Y10" s="7" t="n">
+        <v>3073.183</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>1.658</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>0.009939999999999999</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R10" s="7" t="n">
+        <v>1.668</v>
+      </c>
+      <c r="S10" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -1402,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>3164.678</v>
@@ -1414,48 +1216,30 @@
         <v>2382.986</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>3088.575</v>
+        <v>3004.386</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>5703.539</v>
+        <v>5234.717</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>2614.964</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3024.497</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>5260.814</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>2236.317</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>1.628</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>0.00133</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>3e-05</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W11" s="7" t="n">
-        <v>1.638</v>
-      </c>
-      <c r="X11" s="7" t="n">
-        <v>0.00137</v>
-      </c>
-      <c r="Y11" s="7" t="n">
+        <v>2230.331</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R11" s="7" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="S11" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -1483,7 +1267,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>3164.678</v>
@@ -1495,48 +1279,30 @@
         <v>2382.986</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>3137.963</v>
+        <v>3035.976</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>5646.781</v>
+        <v>5614.86</v>
       </c>
       <c r="M12" s="4" t="n">
-        <v>2508.818</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>3111.256</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>5451.075</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>2339.819</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>1.628</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>0.00136</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6" t="n">
-        <v>0.00992</v>
-      </c>
-      <c r="U12" s="6" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="V12" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W12" s="7" t="n">
-        <v>1.638</v>
-      </c>
-      <c r="X12" s="7" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="Y12" s="7" t="n">
+        <v>2578.884</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>0.00991</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R12" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S12" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -1564,7 +1330,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>3164.678</v>
@@ -1576,48 +1342,30 @@
         <v>2382.986</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>3112.124</v>
+        <v>3055.531</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>5720.507</v>
+        <v>5409.513</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>2608.383</v>
-      </c>
-      <c r="N13" s="4" t="n">
-        <v>2795.934</v>
-      </c>
-      <c r="O13" s="4" t="n">
-        <v>5047.066</v>
-      </c>
-      <c r="P13" s="4" t="n">
-        <v>2251.132</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>1.628</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>0.00134</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6" t="n">
-        <v>0.00963</v>
-      </c>
-      <c r="U13" s="6" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="V13" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W13" s="7" t="n">
-        <v>1.637</v>
-      </c>
-      <c r="X13" s="7" t="n">
-        <v>0.00139</v>
-      </c>
-      <c r="Y13" s="7" t="n">
+        <v>2353.982</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="Q13" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R13" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S13" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -1645,7 +1393,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>3639.46</v>
@@ -1657,48 +1405,30 @@
         <v>2808.262</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>3600.303</v>
+        <v>3558.699</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>6521.151</v>
+        <v>6181.252</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>2920.847</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <v>3558.923</v>
-      </c>
-      <c r="O14" s="4" t="n">
-        <v>6281.626</v>
-      </c>
-      <c r="P14" s="4" t="n">
-        <v>2722.703</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>1.646</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>0.00144</v>
-      </c>
-      <c r="S14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6" t="n">
-        <v>0.009809999999999999</v>
-      </c>
-      <c r="U14" s="6" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="V14" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W14" s="7" t="n">
-        <v>1.656</v>
-      </c>
-      <c r="X14" s="7" t="n">
-        <v>0.00147</v>
-      </c>
-      <c r="Y14" s="7" t="n">
+        <v>2622.552</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>1.642</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="Q14" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R14" s="7" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="S14" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -1726,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>3639.46</v>
@@ -1738,48 +1468,30 @@
         <v>2808.262</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>3614.09</v>
+        <v>3537.505</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>6436.917</v>
+        <v>6052.284</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>2822.826</v>
-      </c>
-      <c r="N15" s="4" t="n">
-        <v>3604.649</v>
-      </c>
-      <c r="O15" s="4" t="n">
-        <v>6391.781</v>
-      </c>
-      <c r="P15" s="4" t="n">
-        <v>2787.132</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>1.646</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>0.00138</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="U15" s="6" t="n">
-        <v>3e-05</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="W15" s="7" t="n">
-        <v>1.657</v>
-      </c>
-      <c r="X15" s="7" t="n">
-        <v>0.00141</v>
-      </c>
-      <c r="Y15" s="7" t="n">
+        <v>2514.779</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.642</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>1.652</v>
+      </c>
+      <c r="S15" s="7" t="n">
         <v>1e-05</v>
       </c>
     </row>
@@ -1807,7 +1519,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>3639.46</v>
@@ -1819,49 +1531,31 @@
         <v>2808.262</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>3628.958</v>
+        <v>3502.321</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>6340.908</v>
+        <v>6459.717</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>2711.949</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>3478.323</v>
-      </c>
-      <c r="O16" s="4" t="n">
-        <v>6382.24</v>
-      </c>
-      <c r="P16" s="4" t="n">
-        <v>2903.917</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>1.646</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>0.00159</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="U16" s="6" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>5e-05</v>
-      </c>
-      <c r="W16" s="7" t="n">
-        <v>1.657</v>
-      </c>
-      <c r="X16" s="7" t="n">
-        <v>0.00163</v>
-      </c>
-      <c r="Y16" s="7" t="n">
-        <v>5e-05</v>
+        <v>2957.397</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>1.642</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R16" s="7" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="S16" s="7" t="n">
+        <v>1e-05</v>
       </c>
     </row>
   </sheetData>
